--- a/practice_data.xlsx
+++ b/practice_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Komikado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Komikado\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2A204A-40F7-4105-8CA8-2CD4D24051F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D132C5-0F3A-40F2-A99E-189B6DAB6B11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="4860" xr2:uid="{DCF48F6B-FADF-46A5-B0FB-F339A05C8081}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>腿</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>胸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6C62BB-5AB5-452A-8DBE-B69B42F9BDD6}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -459,8 +463,20 @@
         <v>55</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/practice_data.xlsx
+++ b/practice_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Komikado\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D132C5-0F3A-40F2-A99E-189B6DAB6B11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9BE16E-2B0E-45A4-8A2F-B4B82343CCC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="4860" xr2:uid="{DCF48F6B-FADF-46A5-B0FB-F339A05C8081}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>腿</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,10 @@
   </si>
   <si>
     <t>腹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6C62BB-5AB5-452A-8DBE-B69B42F9BDD6}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -474,6 +478,17 @@
         <v>55</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>44329</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
